--- a/biology/Zoologie/Aname_camara/Aname_camara.xlsx
+++ b/biology/Zoologie/Aname_camara/Aname_camara.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aname camara est une espèce d'araignées mygalomorphes de la famille des Anamidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aname camara est une espèce d'araignées mygalomorphes de la famille des Anamidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie[1]. Elle se rencontre vers Aramac[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie. Elle se rencontre vers Aramac.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 6,56 mm de long sur 5,38 mm et l'abdomen 7,19 mm de long sur 4,38 mm et la carapace de la femelle paratype mesure 5,94 mm de long sur 4,50 mm et l'abdomen 8,13 mm de long sur 5,00 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 6,56 mm de long sur 5,38 mm et l'abdomen 7,19 mm de long sur 4,38 mm et la carapace de la femelle paratype mesure 5,94 mm de long sur 4,50 mm et l'abdomen 8,13 mm de long sur 5,00 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Raven, 1985 : A revision of the Aname pallida species-group in northern Australia. Australian Journal of Zoology, vol. 33, no 3, p. 377-409.</t>
         </is>
